--- a/Config/AR_Temp.xlsx
+++ b/Config/AR_Temp.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
   <si>
     <t>AR Data Points</t>
   </si>
@@ -217,25 +217,13 @@
     <t>Named Accounts:</t>
   </si>
   <si>
-    <t>[Insert #of Named Accounts]</t>
-  </si>
-  <si>
     <t>Open Opportunities:</t>
   </si>
   <si>
-    <t>[Insert # of Open Opportunities]</t>
-  </si>
-  <si>
     <t> </t>
   </si>
   <si>
     <t>Pipeline:</t>
-  </si>
-  <si>
-    <t>[Insert # for pipeline]</t>
-  </si>
-  <si>
-    <t>Top Named Accounts (by Pipeline):</t>
   </si>
   <si>
     <t>Predictive Content</t>
@@ -699,6 +687,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Event campaigns Screenshot</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Predictive Content Screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Named Accounts (by Pipeline) </t>
   </si>
 </sst>
 </file>
@@ -883,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1016,13 +1013,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1228,21 +1305,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,6 +1344,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1622,7 +1721,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.95" customHeight="1">
       <c r="B2" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>0</v>
@@ -1651,7 +1750,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1">
@@ -1675,7 +1774,7 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5">
@@ -1687,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1709,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1731,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="40"/>
       <c r="C15" s="74" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D15" s="42"/>
       <c r="F15" s="23"/>
@@ -1763,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16.5" thickTop="1">
@@ -1806,7 +1905,7 @@
       </c>
       <c r="E22" s="58"/>
       <c r="F22" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -1822,7 +1921,7 @@
     <row r="24" spans="2:6">
       <c r="B24" s="40"/>
       <c r="C24" s="73" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D24" s="42"/>
       <c r="F24" s="23"/>
@@ -1858,7 +1957,7 @@
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="48.95" customHeight="1">
@@ -1871,7 +1970,7 @@
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -1903,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="41.1" customHeight="1">
       <c r="B33" s="40"/>
       <c r="C33" s="72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D33" s="42"/>
     </row>
@@ -1921,7 +2020,7 @@
     <row r="35" spans="1:4" ht="15.95" customHeight="1">
       <c r="B35" s="40"/>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D35" s="31">
         <f>D29/$D$28</f>
@@ -1931,7 +2030,7 @@
     <row r="36" spans="1:4" ht="15.95" customHeight="1">
       <c r="B36" s="40"/>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D36" s="31">
         <f>D30/$D$28</f>
@@ -1941,7 +2040,7 @@
     <row r="37" spans="1:4">
       <c r="B37" s="40"/>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D37" s="31">
         <f>D31/$D$28</f>
@@ -1951,7 +2050,7 @@
     <row r="38" spans="1:4" ht="15.95" customHeight="1">
       <c r="B38" s="50"/>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D38" s="31">
         <f>D32/$D$28</f>
@@ -1988,7 +2087,7 @@
     <row r="44" spans="1:4">
       <c r="B44" s="50"/>
       <c r="C44" s="73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.95" customHeight="1">
@@ -1997,7 +2096,7 @@
     <row r="46" spans="1:4">
       <c r="B46" s="50"/>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2065,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2090,7 +2189,7 @@
   <sheetData>
     <row r="4" spans="2:11" ht="18.75">
       <c r="B4" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1">
@@ -2104,13 +2203,13 @@
       <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="E6" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
       <c r="K6" s="76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="99.95" customHeight="1">
@@ -2119,74 +2218,74 @@
         <v>41</v>
       </c>
       <c r="D7" s="30"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
     </row>
     <row r="8" spans="2:11" ht="27.95" customHeight="1">
       <c r="B8" s="40"/>
-      <c r="C8" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:11" ht="21.95" customHeight="1">
       <c r="B9" s="40"/>
-      <c r="C9" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
+      <c r="C9" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="10" spans="2:11" ht="24" customHeight="1">
       <c r="B10" s="40"/>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="21.95" customHeight="1">
       <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="23.1" customHeight="1">
       <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="18.95" customHeight="1">
       <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="21.95" customHeight="1">
       <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="21.95" customHeight="1">
       <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="21" customHeight="1">
       <c r="B16" s="40"/>
       <c r="C16" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="24" customHeight="1">
       <c r="B17" s="40"/>
       <c r="C17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="18.75">
@@ -2203,31 +2302,31 @@
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="90"/>
+      <c r="G20" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="81"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="90"/>
     </row>
     <row r="21" spans="2:10" ht="98.1" customHeight="1" thickTop="1">
       <c r="B21" s="60"/>
       <c r="C21" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D21" s="43"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="2:10" ht="92.1" customHeight="1">
       <c r="B22" s="40"/>
@@ -2235,12 +2334,12 @@
         <v>37</v>
       </c>
       <c r="D22" s="69"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="2:10" ht="90.95" customHeight="1">
       <c r="B23" s="40"/>
@@ -2248,106 +2347,106 @@
         <v>39</v>
       </c>
       <c r="D23" s="69"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="2:10" ht="27" customHeight="1">
       <c r="B24" s="40"/>
-      <c r="C24" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="C24" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
     </row>
     <row r="25" spans="2:10" ht="21" customHeight="1">
       <c r="B25" s="40"/>
-      <c r="C25" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="G25" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="C25" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="G25" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="2:10" ht="23.1" customHeight="1">
       <c r="B26" s="40"/>
       <c r="C26" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="24" customHeight="1">
       <c r="B27" s="40"/>
       <c r="C27" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="21.95" customHeight="1">
       <c r="B28" s="40"/>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="26.1" customHeight="1">
       <c r="B29" s="40"/>
       <c r="C29" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="24" customHeight="1">
       <c r="B30" s="40"/>
       <c r="C30" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="26.1" customHeight="1">
       <c r="B31" s="40"/>
       <c r="C31" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="23.1" customHeight="1">
       <c r="B32" s="40"/>
       <c r="C32" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1">
       <c r="B33" s="40"/>
       <c r="C33" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21.95" customHeight="1">
       <c r="B34" s="40"/>
       <c r="C34" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21.95" customHeight="1">
@@ -2363,20 +2462,20 @@
       <c r="C37" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81" t="s">
+      <c r="E37" s="90"/>
+      <c r="F37" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="81"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="90"/>
       <c r="K37" s="76" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="102" customHeight="1" thickTop="1">
@@ -2384,20 +2483,20 @@
       <c r="C38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:11" ht="23.1" customHeight="1">
       <c r="B39" s="52"/>
-      <c r="C39" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
+      <c r="C39" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
@@ -2405,11 +2504,11 @@
     </row>
     <row r="40" spans="1:11" ht="26.1" customHeight="1">
       <c r="B40" s="40"/>
-      <c r="C40" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
+      <c r="C40" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
@@ -2417,7 +2516,7 @@
     <row r="41" spans="1:11" ht="26.1" customHeight="1">
       <c r="B41" s="40"/>
       <c r="C41" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
@@ -2426,7 +2525,7 @@
     <row r="42" spans="1:11" ht="26.1" customHeight="1">
       <c r="B42" s="40"/>
       <c r="C42" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -2435,7 +2534,7 @@
     <row r="43" spans="1:11" ht="26.1" customHeight="1">
       <c r="B43" s="40"/>
       <c r="C43" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
@@ -2444,7 +2543,7 @@
     <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="B44" s="40"/>
       <c r="C44" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
@@ -2453,7 +2552,7 @@
     <row r="45" spans="1:11" ht="24.95" customHeight="1">
       <c r="B45" s="40"/>
       <c r="C45" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
@@ -2476,21 +2575,21 @@
       <c r="C47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81" t="s">
+      <c r="E47" s="90"/>
+      <c r="F47" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" s="81"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="90"/>
       <c r="J47" s="21"/>
       <c r="K47" s="76" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="144.94999999999999" customHeight="1" thickTop="1">
@@ -2498,20 +2597,20 @@
       <c r="C48" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
     </row>
     <row r="49" spans="1:11" ht="26.1" customHeight="1">
       <c r="B49" s="52"/>
-      <c r="C49" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
+      <c r="C49" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
@@ -2519,46 +2618,46 @@
     </row>
     <row r="50" spans="1:11" ht="26.1" customHeight="1">
       <c r="B50" s="40"/>
-      <c r="C50" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
+      <c r="C50" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
     </row>
     <row r="51" spans="1:11" ht="27" customHeight="1">
       <c r="B51" s="40"/>
       <c r="C51" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="26.1" customHeight="1">
       <c r="B52" s="40"/>
       <c r="C52" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="26.1" customHeight="1">
       <c r="B53" s="40"/>
       <c r="C53" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="26.1" customHeight="1">
       <c r="B54" s="40"/>
       <c r="C54" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="27" customHeight="1">
       <c r="B55" s="40"/>
       <c r="C55" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="26.1" customHeight="1">
       <c r="B56" s="40"/>
       <c r="C56" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
@@ -2570,16 +2669,16 @@
       <c r="C58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="81" t="s">
+      <c r="D58" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81" t="s">
+      <c r="E58" s="90"/>
+      <c r="F58" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="81"/>
+      <c r="G58" s="90"/>
       <c r="J58" s="59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K58" s="67"/>
     </row>
@@ -2588,25 +2687,25 @@
       <c r="C59" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
     </row>
     <row r="60" spans="1:11" ht="27" customHeight="1">
       <c r="B60" s="40"/>
-      <c r="C60" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
+      <c r="C60" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:11" ht="27" customHeight="1">
       <c r="B61" s="40"/>
       <c r="C61" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -2616,49 +2715,49 @@
     <row r="62" spans="1:11" ht="27" customHeight="1">
       <c r="B62" s="40"/>
       <c r="C62" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="27" customHeight="1">
       <c r="B63" s="40"/>
       <c r="C63" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="27" customHeight="1">
       <c r="B64" s="40"/>
       <c r="C64" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="27" customHeight="1">
       <c r="B65" s="40"/>
       <c r="C65" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="33" customHeight="1">
       <c r="B66" s="40"/>
       <c r="C66" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="33" customHeight="1">
       <c r="B67" s="40"/>
       <c r="C67" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" customHeight="1">
       <c r="B68" s="40"/>
       <c r="C68" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" customHeight="1">
       <c r="B69" s="40"/>
       <c r="C69" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="32.1" customHeight="1">
@@ -2677,14 +2776,14 @@
       <c r="C72" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81" t="s">
+      <c r="E72" s="90"/>
+      <c r="F72" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G72" s="81"/>
+      <c r="G72" s="90"/>
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
     </row>
@@ -2693,41 +2792,41 @@
       <c r="C73" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="82"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="2:10" ht="26.1" customHeight="1">
       <c r="B74" s="40"/>
-      <c r="C74" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
+      <c r="C74" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="2:10" ht="26.1" customHeight="1">
       <c r="B75" s="40"/>
-      <c r="C75" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
+      <c r="C75" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
     </row>
     <row r="76" spans="2:10" ht="26.1" customHeight="1">
       <c r="B76" s="40"/>
       <c r="C76" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="26.1" customHeight="1">
       <c r="B77" s="40"/>
       <c r="C77" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="27" customHeight="1">
@@ -2742,86 +2841,86 @@
       <c r="C80" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="81" t="s">
+      <c r="D80" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81" t="s">
+      <c r="E80" s="90"/>
+      <c r="F80" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G80" s="81"/>
+      <c r="G80" s="90"/>
     </row>
     <row r="81" spans="2:14" ht="113.1" customHeight="1">
       <c r="B81" s="40"/>
       <c r="C81" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
     </row>
     <row r="82" spans="2:14" ht="26.1" customHeight="1">
       <c r="B82" s="40"/>
-      <c r="C82" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
+      <c r="C82" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
     </row>
     <row r="83" spans="2:14" ht="26.1" customHeight="1">
       <c r="B83" s="40"/>
-      <c r="C83" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
+      <c r="C83" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
     </row>
     <row r="84" spans="2:14" ht="26.1" customHeight="1">
       <c r="B84" s="40"/>
       <c r="C84" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="26.1" customHeight="1">
       <c r="B85" s="40"/>
       <c r="C85" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="2:14" ht="26.1" customHeight="1">
       <c r="B86" s="40"/>
       <c r="C86" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="2:14" ht="26.1" customHeight="1">
       <c r="B87" s="40"/>
       <c r="C87" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="2:14" ht="26.1" customHeight="1">
       <c r="B88" s="40"/>
       <c r="C88" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="2:14" ht="26.1" customHeight="1">
       <c r="B89" s="40"/>
       <c r="C89" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:14" ht="38.1" customHeight="1">
       <c r="B90" s="40"/>
       <c r="E90" s="10"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="90"/>
+      <c r="M90" s="101"/>
+      <c r="N90" s="102"/>
     </row>
     <row r="91" spans="2:14" ht="26.1" customHeight="1" thickBot="1">
       <c r="B91" s="40"/>
@@ -2831,16 +2930,16 @@
       <c r="C92" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="81" t="s">
+      <c r="D92" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="81"/>
-      <c r="F92" s="81" t="s">
+      <c r="E92" s="90"/>
+      <c r="F92" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="81"/>
+      <c r="G92" s="90"/>
       <c r="K92" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:14" ht="102" customHeight="1">
@@ -2848,18 +2947,18 @@
       <c r="C93" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="91"/>
     </row>
     <row r="94" spans="2:14" ht="27" customHeight="1">
       <c r="B94" s="40"/>
-      <c r="C94" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
+      <c r="C94" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
     </row>
@@ -2887,45 +2986,45 @@
       <c r="C98" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="81" t="s">
+      <c r="D98" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81" t="s">
+      <c r="E98" s="90"/>
+      <c r="F98" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="81"/>
-      <c r="H98" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I98" s="81"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I98" s="90"/>
       <c r="K98" t="s">
-        <v>145</v>
-      </c>
-      <c r="L98" s="91"/>
-      <c r="M98" s="91"/>
+        <v>141</v>
+      </c>
+      <c r="L98" s="103"/>
+      <c r="M98" s="103"/>
     </row>
     <row r="99" spans="2:16" ht="128.1" customHeight="1">
       <c r="B99" s="40"/>
       <c r="C99" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="80"/>
-      <c r="I99" s="80"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
+      <c r="L99" s="89"/>
+      <c r="M99" s="89"/>
     </row>
     <row r="100" spans="2:16" ht="27" customHeight="1">
       <c r="B100" s="40"/>
-      <c r="C100" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
+      <c r="C100" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
       <c r="F100" s="43"/>
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
@@ -2933,59 +3032,59 @@
     </row>
     <row r="101" spans="2:16" ht="27" customHeight="1">
       <c r="B101" s="40"/>
-      <c r="C101" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
+      <c r="C101" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
     </row>
     <row r="102" spans="2:16" ht="27" customHeight="1">
       <c r="B102" s="40"/>
       <c r="C102" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="27" customHeight="1">
       <c r="B103" s="40"/>
       <c r="C103" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K103" t="s">
-        <v>146</v>
-      </c>
-      <c r="L103" s="91"/>
-      <c r="M103" s="91"/>
-      <c r="O103" s="91"/>
-      <c r="P103" s="91"/>
+        <v>142</v>
+      </c>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="O103" s="103"/>
+      <c r="P103" s="103"/>
     </row>
     <row r="104" spans="2:16" ht="27" customHeight="1">
       <c r="B104" s="40"/>
       <c r="C104" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="27" customHeight="1">
       <c r="B105" s="40"/>
       <c r="C105" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="27" customHeight="1">
       <c r="B106" s="40"/>
       <c r="C106" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="27" customHeight="1">
       <c r="B107" s="40"/>
       <c r="C107" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="27" customHeight="1">
       <c r="B108" s="40"/>
       <c r="C108" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="27" customHeight="1" thickBot="1">
@@ -2996,39 +3095,39 @@
       <c r="C110" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D110" s="81" t="s">
+      <c r="D110" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81" t="s">
+      <c r="E110" s="90"/>
+      <c r="F110" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I110" s="81"/>
+      <c r="G110" s="90"/>
+      <c r="H110" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I110" s="90"/>
     </row>
     <row r="111" spans="2:16" ht="120.95" customHeight="1">
       <c r="B111" s="50"/>
       <c r="C111" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
+      <c r="D111" s="91"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
     </row>
     <row r="112" spans="2:16">
       <c r="B112" s="50"/>
-      <c r="D112" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="E112" s="80"/>
-      <c r="F112" s="80"/>
-      <c r="G112" s="80"/>
+      <c r="D112" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
+      <c r="G112" s="91"/>
       <c r="H112" s="50"/>
       <c r="I112" s="50"/>
     </row>
@@ -3037,21 +3136,21 @@
       <c r="C113" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="80"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="100"/>
+      <c r="I113" s="100"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="50"/>
-      <c r="D114" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="E114" s="80"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="80"/>
+      <c r="D114" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="91"/>
+      <c r="F114" s="91"/>
+      <c r="G114" s="91"/>
       <c r="H114" s="50"/>
       <c r="I114" s="50"/>
     </row>
@@ -3060,19 +3159,19 @@
       <c r="C115" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="88"/>
-      <c r="I115" s="88"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="91"/>
+      <c r="F115" s="91"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="100"/>
+      <c r="I115" s="100"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="50"/>
-      <c r="D116" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E116" s="79"/>
+      <c r="D116" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="89"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="50"/>
@@ -3082,29 +3181,29 @@
     </row>
     <row r="119" spans="2:10" ht="18.75">
       <c r="B119" s="50"/>
-      <c r="C119" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="D119" s="78"/>
-      <c r="E119" s="78"/>
+      <c r="C119" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="50"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="50"/>
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D121" s="79"/>
-      <c r="F121" s="79" t="s">
+      <c r="D121" s="90"/>
+      <c r="F121" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="79"/>
-      <c r="I121" s="79" t="s">
+      <c r="G121" s="90"/>
+      <c r="I121" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="J121" s="79"/>
+      <c r="J121" s="90"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="50"/>
@@ -3129,14 +3228,14 @@
     </row>
     <row r="129" spans="2:8">
       <c r="B129" s="50"/>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D129" s="79"/>
-      <c r="G129" s="79" t="s">
+      <c r="D129" s="90"/>
+      <c r="G129" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="H129" s="79"/>
+      <c r="H129" s="90"/>
     </row>
     <row r="130" spans="2:8">
       <c r="B130" s="50"/>
@@ -3164,71 +3263,84 @@
     </row>
     <row r="138" spans="2:8" ht="18.75">
       <c r="B138" s="50"/>
-      <c r="C138" s="78" t="s">
+      <c r="C138" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D138" s="78"/>
-      <c r="E138" s="78"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="50"/>
     </row>
     <row r="140" spans="2:8">
       <c r="B140" s="50"/>
-      <c r="C140" s="77" t="s">
+      <c r="C140" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="77"/>
+      <c r="D140" s="96"/>
+      <c r="E140" s="77"/>
     </row>
     <row r="141" spans="2:8">
       <c r="B141" s="50"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="80"/>
     </row>
     <row r="142" spans="2:8">
       <c r="B142" s="50"/>
-      <c r="C142" s="77" t="s">
+      <c r="C142" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D142" s="77"/>
-      <c r="E142" t="s">
-        <v>60</v>
+      <c r="D142" s="87"/>
+      <c r="E142" s="81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="2:8">
       <c r="B143" s="50"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="80"/>
     </row>
     <row r="144" spans="2:8">
       <c r="B144" s="50"/>
-      <c r="C144" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D144" s="77"/>
-      <c r="E144" t="s">
-        <v>62</v>
+      <c r="C144" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" s="87"/>
+      <c r="E144" s="81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" s="50"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="80"/>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="50"/>
-      <c r="C146" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D146" s="77"/>
-      <c r="E146" t="s">
-        <v>65</v>
+      <c r="C146" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" s="87"/>
+      <c r="E146" s="81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" s="50"/>
+      <c r="C147" s="82"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="84"/>
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="50"/>
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="50"/>
-      <c r="C149" s="32" t="s">
-        <v>66</v>
+      <c r="C149" s="85" t="s">
+        <v>196</v>
       </c>
       <c r="D149" s="62"/>
       <c r="E149" s="32"/>
@@ -3257,7 +3369,7 @@
     <row r="157" spans="2:9" ht="17.25">
       <c r="B157" s="50"/>
       <c r="I157" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="2:9">
@@ -3276,11 +3388,11 @@
       <c r="F162" s="32"/>
     </row>
     <row r="176" spans="2:6" ht="18.75">
-      <c r="C176" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D176" s="78"/>
-      <c r="E176" s="78"/>
+      <c r="C176" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" s="88"/>
+      <c r="E176" s="88"/>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="68"/>
@@ -3470,1457 +3582,1457 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="26.25">
-      <c r="B3" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
       <c r="N3" s="20"/>
     </row>
     <row r="6" spans="2:14" ht="38.1" customHeight="1">
-      <c r="D6" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="D6" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
+      <c r="H6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="2:14" ht="68.099999999999994" customHeight="1">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="H8" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="H8" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
       <c r="N8" s="63"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
       <c r="N9" s="63"/>
     </row>
     <row r="10" spans="2:14" ht="56.1" customHeight="1">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
+      <c r="H10" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
       <c r="N10" s="63"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
     </row>
     <row r="12" spans="2:14" ht="71.099999999999994" customHeight="1">
-      <c r="B12" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
+      <c r="B12" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
       <c r="L12" s="63"/>
       <c r="M12" s="63"/>
       <c r="N12" s="63"/>
     </row>
     <row r="13" spans="2:14" ht="30" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
       <c r="L13" s="63"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
     </row>
     <row r="14" spans="2:14" ht="47.1" customHeight="1">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="H14" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="2:14" ht="33.950000000000003" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="2:14" ht="96.95" customHeight="1">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+    </row>
+    <row r="17" spans="2:17" ht="51.95" customHeight="1">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+    </row>
+    <row r="18" spans="2:17" ht="68.099999999999994" customHeight="1">
+      <c r="B18" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-    </row>
-    <row r="17" spans="2:17" ht="51.95" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-    </row>
-    <row r="18" spans="2:17" ht="68.099999999999994" customHeight="1">
-      <c r="B18" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
       <c r="L18" s="63"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
     </row>
     <row r="19" spans="2:17" ht="51.95" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
       <c r="L19" s="63"/>
       <c r="M19" s="63"/>
       <c r="N19" s="63"/>
     </row>
     <row r="20" spans="2:17" ht="54" customHeight="1">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
     </row>
     <row r="21" spans="2:17" ht="45.95" customHeight="1">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
     </row>
     <row r="22" spans="2:17" ht="83.1" customHeight="1">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+    </row>
+    <row r="23" spans="2:17" ht="36" customHeight="1">
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+    </row>
+    <row r="24" spans="2:17" ht="78.95" customHeight="1">
+      <c r="B24" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+    </row>
+    <row r="25" spans="2:17" ht="47.1" customHeight="1">
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+    </row>
+    <row r="26" spans="2:17" ht="117.95" customHeight="1">
+      <c r="B26" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+    </row>
+    <row r="27" spans="2:17" ht="32.1" customHeight="1">
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+    </row>
+    <row r="28" spans="2:17" ht="69.95" customHeight="1">
+      <c r="B28" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+    </row>
+    <row r="29" spans="2:17" ht="33" customHeight="1">
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+    </row>
+    <row r="30" spans="2:17" ht="84" customHeight="1">
+      <c r="B30" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="102"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+    </row>
+    <row r="31" spans="2:17" ht="45.95" customHeight="1">
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+    </row>
+    <row r="32" spans="2:17" ht="72.95" customHeight="1">
+      <c r="B32" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="102"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-    </row>
-    <row r="23" spans="2:17" ht="36" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-    </row>
-    <row r="24" spans="2:17" ht="78.95" customHeight="1">
-      <c r="B24" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-    </row>
-    <row r="25" spans="2:17" ht="47.1" customHeight="1">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-    </row>
-    <row r="26" spans="2:17" ht="117.95" customHeight="1">
-      <c r="B26" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-    </row>
-    <row r="27" spans="2:17" ht="32.1" customHeight="1">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-    </row>
-    <row r="28" spans="2:17" ht="69.95" customHeight="1">
-      <c r="B28" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-    </row>
-    <row r="29" spans="2:17" ht="33" customHeight="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-    </row>
-    <row r="30" spans="2:17" ht="84" customHeight="1">
-      <c r="B30" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-    </row>
-    <row r="31" spans="2:17" ht="45.95" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-    </row>
-    <row r="32" spans="2:17" ht="72.95" customHeight="1">
-      <c r="B32" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
       <c r="G46" s="23"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="104"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="92"/>
-      <c r="Q49" s="92"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="92"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="104"/>
+      <c r="Q51" s="104"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="92"/>
-      <c r="Q52" s="92"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="104"/>
+      <c r="Q52" s="104"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="92"/>
-      <c r="P53" s="92"/>
-      <c r="Q53" s="92"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="104"/>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="102"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="102"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="102"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="102"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="102"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="102"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="102"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="102"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
+      <c r="H80" s="102"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="102"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="102"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="102"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="90"/>
-      <c r="J82" s="90"/>
+      <c r="H82" s="102"/>
+      <c r="I82" s="102"/>
+      <c r="J82" s="102"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="102"/>
       <c r="G83" s="23"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
+      <c r="H83" s="102"/>
+      <c r="I83" s="102"/>
+      <c r="J83" s="102"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
+      <c r="H84" s="102"/>
+      <c r="I84" s="102"/>
+      <c r="J84" s="102"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
+      <c r="H85" s="102"/>
+      <c r="I85" s="102"/>
+      <c r="J85" s="102"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
+      <c r="H86" s="102"/>
+      <c r="I86" s="102"/>
+      <c r="J86" s="102"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="90"/>
-      <c r="J87" s="90"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
+      <c r="J87" s="102"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
+      <c r="J88" s="102"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="102"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="102"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="102"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="90"/>
-      <c r="J90" s="90"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="102"/>
+      <c r="J90" s="102"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="102"/>
+      <c r="J91" s="102"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="90"/>
-      <c r="J92" s="90"/>
+      <c r="H92" s="102"/>
+      <c r="I92" s="102"/>
+      <c r="J92" s="102"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="90"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="102"/>
+      <c r="J93" s="102"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="90"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="102"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
+      <c r="D95" s="102"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="102"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="90"/>
+      <c r="H95" s="102"/>
+      <c r="I95" s="102"/>
+      <c r="J95" s="102"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
-      <c r="D96" s="90"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="102"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="90"/>
-      <c r="J96" s="90"/>
+      <c r="H96" s="102"/>
+      <c r="I96" s="102"/>
+      <c r="J96" s="102"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="102"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="90"/>
-      <c r="J97" s="90"/>
+      <c r="H97" s="102"/>
+      <c r="I97" s="102"/>
+      <c r="J97" s="102"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
-      <c r="D98" s="90"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="90"/>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="102"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="90"/>
+      <c r="H98" s="102"/>
+      <c r="I98" s="102"/>
+      <c r="J98" s="102"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="102"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
+      <c r="H99" s="102"/>
+      <c r="I99" s="102"/>
+      <c r="J99" s="102"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="90"/>
-      <c r="J100" s="90"/>
+      <c r="H100" s="102"/>
+      <c r="I100" s="102"/>
+      <c r="J100" s="102"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
       <c r="G101" s="23"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="90"/>
+      <c r="H101" s="102"/>
+      <c r="I101" s="102"/>
+      <c r="J101" s="102"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
-      <c r="D102" s="90"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="102"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="90"/>
-      <c r="J102" s="90"/>
+      <c r="H102" s="102"/>
+      <c r="I102" s="102"/>
+      <c r="J102" s="102"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="102"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="90"/>
-      <c r="J103" s="90"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="102"/>
+      <c r="J103" s="102"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="102"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="90"/>
-      <c r="J104" s="90"/>
+      <c r="H104" s="102"/>
+      <c r="I104" s="102"/>
+      <c r="J104" s="102"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="102"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
+      <c r="H105" s="102"/>
+      <c r="I105" s="102"/>
+      <c r="J105" s="102"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="102"/>
+      <c r="J106" s="102"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="90"/>
+      <c r="H107" s="102"/>
+      <c r="I107" s="102"/>
+      <c r="J107" s="102"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
+      <c r="D108" s="102"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="102"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="90"/>
-      <c r="J108" s="90"/>
+      <c r="H108" s="102"/>
+      <c r="I108" s="102"/>
+      <c r="J108" s="102"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
+      <c r="D109" s="102"/>
+      <c r="E109" s="102"/>
+      <c r="F109" s="102"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="90"/>
+      <c r="H109" s="102"/>
+      <c r="I109" s="102"/>
+      <c r="J109" s="102"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
+      <c r="H110" s="102"/>
+      <c r="I110" s="102"/>
+      <c r="J110" s="102"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="23"/>
@@ -4929,9 +5041,9 @@
       <c r="E111" s="23"/>
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="90"/>
-      <c r="I111" s="90"/>
-      <c r="J111" s="90"/>
+      <c r="H111" s="102"/>
+      <c r="I111" s="102"/>
+      <c r="J111" s="102"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="23"/>
@@ -4940,9 +5052,9 @@
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="90"/>
-      <c r="J112" s="90"/>
+      <c r="H112" s="102"/>
+      <c r="I112" s="102"/>
+      <c r="J112" s="102"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="23"/>
@@ -4951,9 +5063,9 @@
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="90"/>
-      <c r="J113" s="90"/>
+      <c r="H113" s="102"/>
+      <c r="I113" s="102"/>
+      <c r="J113" s="102"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="23"/>
@@ -4962,9 +5074,9 @@
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="90"/>
-      <c r="I114" s="90"/>
-      <c r="J114" s="90"/>
+      <c r="H114" s="102"/>
+      <c r="I114" s="102"/>
+      <c r="J114" s="102"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="23"/>
@@ -4973,9 +5085,9 @@
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="90"/>
-      <c r="I115" s="90"/>
-      <c r="J115" s="90"/>
+      <c r="H115" s="102"/>
+      <c r="I115" s="102"/>
+      <c r="J115" s="102"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="23"/>
@@ -4984,9 +5096,9 @@
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="90"/>
-      <c r="I116" s="90"/>
-      <c r="J116" s="90"/>
+      <c r="H116" s="102"/>
+      <c r="I116" s="102"/>
+      <c r="J116" s="102"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="23"/>
@@ -4995,9 +5107,9 @@
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="90"/>
-      <c r="I117" s="90"/>
-      <c r="J117" s="90"/>
+      <c r="H117" s="102"/>
+      <c r="I117" s="102"/>
+      <c r="J117" s="102"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="23"/>
@@ -5006,9 +5118,9 @@
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="90"/>
-      <c r="I118" s="90"/>
-      <c r="J118" s="90"/>
+      <c r="H118" s="102"/>
+      <c r="I118" s="102"/>
+      <c r="J118" s="102"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="23"/>
@@ -5017,9 +5129,9 @@
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="90"/>
-      <c r="I119" s="90"/>
-      <c r="J119" s="90"/>
+      <c r="H119" s="102"/>
+      <c r="I119" s="102"/>
+      <c r="J119" s="102"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="23"/>
@@ -5028,9 +5140,9 @@
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="90"/>
-      <c r="I120" s="90"/>
-      <c r="J120" s="90"/>
+      <c r="H120" s="102"/>
+      <c r="I120" s="102"/>
+      <c r="J120" s="102"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="23"/>
@@ -5039,9 +5151,9 @@
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="90"/>
-      <c r="I121" s="90"/>
-      <c r="J121" s="90"/>
+      <c r="H121" s="102"/>
+      <c r="I121" s="102"/>
+      <c r="J121" s="102"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="23"/>
@@ -5050,9 +5162,9 @@
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="90"/>
-      <c r="I122" s="90"/>
-      <c r="J122" s="90"/>
+      <c r="H122" s="102"/>
+      <c r="I122" s="102"/>
+      <c r="J122" s="102"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="23"/>
@@ -5061,9 +5173,9 @@
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
+      <c r="H123" s="102"/>
+      <c r="I123" s="102"/>
+      <c r="J123" s="102"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="23"/>
@@ -5072,9 +5184,9 @@
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90"/>
-      <c r="J124" s="90"/>
+      <c r="H124" s="102"/>
+      <c r="I124" s="102"/>
+      <c r="J124" s="102"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="23"/>
@@ -5083,9 +5195,9 @@
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="90"/>
-      <c r="I125" s="90"/>
-      <c r="J125" s="90"/>
+      <c r="H125" s="102"/>
+      <c r="I125" s="102"/>
+      <c r="J125" s="102"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="23"/>
@@ -5094,9 +5206,9 @@
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="90"/>
-      <c r="I126" s="90"/>
-      <c r="J126" s="90"/>
+      <c r="H126" s="102"/>
+      <c r="I126" s="102"/>
+      <c r="J126" s="102"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="23"/>
@@ -5105,9 +5217,9 @@
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="90"/>
-      <c r="I127" s="90"/>
-      <c r="J127" s="90"/>
+      <c r="H127" s="102"/>
+      <c r="I127" s="102"/>
+      <c r="J127" s="102"/>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="23"/>
@@ -5116,9 +5228,9 @@
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="90"/>
-      <c r="I128" s="90"/>
-      <c r="J128" s="90"/>
+      <c r="H128" s="102"/>
+      <c r="I128" s="102"/>
+      <c r="J128" s="102"/>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="23"/>
@@ -5127,9 +5239,9 @@
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="90"/>
-      <c r="I129" s="90"/>
-      <c r="J129" s="90"/>
+      <c r="H129" s="102"/>
+      <c r="I129" s="102"/>
+      <c r="J129" s="102"/>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="23"/>
@@ -5138,9 +5250,9 @@
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="90"/>
-      <c r="I130" s="90"/>
-      <c r="J130" s="90"/>
+      <c r="H130" s="102"/>
+      <c r="I130" s="102"/>
+      <c r="J130" s="102"/>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="23"/>
@@ -5149,9 +5261,9 @@
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
-      <c r="J131" s="90"/>
+      <c r="H131" s="102"/>
+      <c r="I131" s="102"/>
+      <c r="J131" s="102"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="23"/>
@@ -5160,9 +5272,9 @@
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
       <c r="G132" s="23"/>
-      <c r="H132" s="90"/>
-      <c r="I132" s="90"/>
-      <c r="J132" s="90"/>
+      <c r="H132" s="102"/>
+      <c r="I132" s="102"/>
+      <c r="J132" s="102"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="23"/>
@@ -5171,9 +5283,9 @@
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
-      <c r="H133" s="90"/>
-      <c r="I133" s="90"/>
-      <c r="J133" s="90"/>
+      <c r="H133" s="102"/>
+      <c r="I133" s="102"/>
+      <c r="J133" s="102"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="23"/>
